--- a/simulation results.xlsx
+++ b/simulation results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>n</t>
   </si>
@@ -417,7 +417,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +626,9 @@
       <c r="E13">
         <v>4</v>
       </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -643,6 +646,9 @@
       <c r="E14">
         <v>500</v>
       </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -660,6 +666,9 @@
       <c r="E15">
         <v>40</v>
       </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -677,8 +686,11 @@
       <c r="E16">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -694,8 +706,11 @@
       <c r="E17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -711,8 +726,11 @@
       <c r="E18">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -728,8 +746,11 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -744,6 +765,9 @@
       </c>
       <c r="E20" t="s">
         <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/simulation results.xlsx
+++ b/simulation results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
   <si>
     <t>n</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Setting</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>t0</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +696,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -710,7 +716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -730,7 +736,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -750,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -768,6 +774,446 @@
       </c>
       <c r="F20" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <v>300</v>
+      </c>
+      <c r="J25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27">
+        <v>200</v>
+      </c>
+      <c r="I27">
+        <v>200</v>
+      </c>
+      <c r="J27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>300</v>
+      </c>
+      <c r="C33">
+        <v>300</v>
+      </c>
+      <c r="D33">
+        <v>300</v>
+      </c>
+      <c r="E33">
+        <v>300</v>
+      </c>
+      <c r="F33">
+        <v>300</v>
+      </c>
+      <c r="G33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="D35">
+        <v>200</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+      <c r="F35">
+        <v>200</v>
+      </c>
+      <c r="G35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
